--- a/latam/10. Apoyo Desafío - Pomodoro.xlsx
+++ b/latam/10. Apoyo Desafío - Pomodoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exors\Desktop\programacion web\latam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C25A60-3E69-43C9-86B7-3127C05B807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4042FF68-4645-4196-A787-1A83BB493189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación Tareas yo Activid" sheetId="1" r:id="rId1"/>
@@ -1029,52 +1029,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,16 +1090,23 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1564,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:X980"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3142,8 +3142,8 @@
   </sheetPr>
   <dimension ref="A1:AK1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3180,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="34"/>
@@ -3221,12 +3221,12 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34"/>
@@ -3235,8 +3235,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="34"/>
@@ -3245,8 +3245,8 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="34"/>
@@ -3255,14 +3255,14 @@
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="72" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="2"/>
@@ -3274,9 +3274,9 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4">
         <v>25</v>
       </c>
@@ -3349,9 +3349,9 @@
       <c r="AA3" s="11">
         <v>30</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -3361,65 +3361,65 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="15" t="str">
-        <f t="shared" ref="AB4:AB8" si="0">IF(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")))</f>
-        <v/>
+        <f>IF(CONCATENATE(COUNTIF(D4:Z4,"=VERDADERO")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=VERDADERO")*25," [min]")))</f>
+        <v>25 [min]</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" ref="AC4:AC12" si="1">IF(COUNTIF(D4:R4,TRUE)=0,"",COUNTIF(D4:R4,TRUE))</f>
+        <f>IF(COUNTIF(D4:R4,TRUE)=0,"",COUNTIF(D4:R4,TRUE))</f>
         <v>1</v>
       </c>
       <c r="AD4" s="17" t="b">
@@ -3427,65 +3427,65 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="80"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="AB5:AB13" si="0">IF(CONCATENATE(COUNTIF(D5:Z5,"=VERDADERO")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D5:Z5,"=VERDADERO")*25," [min]")))</f>
+        <v>25 [min]</v>
       </c>
       <c r="AC5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC4:AC12" si="1">IF(COUNTIF(D5:R5,TRUE)=0,"",COUNTIF(D5:R5,TRUE))</f>
         <v>1</v>
       </c>
       <c r="AD5" s="17" t="b">
@@ -3493,62 +3493,62 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="55"/>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>25 [min]</v>
       </c>
       <c r="AC6" s="16">
         <f t="shared" si="1"/>
@@ -3559,62 +3559,62 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="80"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="80"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>25 [min]</v>
       </c>
       <c r="AC7" s="16">
         <f t="shared" si="1"/>
@@ -3625,62 +3625,62 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="80"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="52"/>
       <c r="X8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="80"/>
+      <c r="AA8" s="55"/>
       <c r="AB8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>25 [min]</v>
       </c>
       <c r="AC8" s="16">
         <f t="shared" si="1"/>
@@ -3691,60 +3691,63 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="80"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="52"/>
       <c r="X9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="15"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>50 [min]</v>
+      </c>
       <c r="AC9" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3754,57 +3757,57 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y10" s="44"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="80"/>
+      <c r="AA10" s="55"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3815,57 +3818,57 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" s="44"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="55"/>
       <c r="AB11" s="15" t="str">
         <f t="shared" ref="AB11:AB12" si="2">IF(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")))</f>
         <v/>
@@ -3879,57 +3882,57 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W12" s="45"/>
+      <c r="W12" s="53"/>
       <c r="X12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="45"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="81"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3950,42 +3953,42 @@
       <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="77"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="22" t="str">
-        <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")))</f>
-        <v/>
+        <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=VERDADERO")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=VERDADERO")*25," [min]")))</f>
+        <v>175 [min]</v>
       </c>
       <c r="AC13" s="22">
         <f>SUM(AC4:AC12)</f>
@@ -4029,119 +4032,119 @@
       <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="60" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="66"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="62"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7145,20 +7148,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AA15:AC17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:Q17"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="M4:M12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L13:S13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:E17"/>
@@ -7175,19 +7177,20 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:Q17"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7202,7 +7205,9 @@
   </sheetPr>
   <dimension ref="A1:AK1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7238,7 +7243,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="34"/>
@@ -7279,12 +7284,12 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34"/>
@@ -7293,8 +7298,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="34"/>
@@ -7303,8 +7308,8 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="34"/>
@@ -7313,14 +7318,14 @@
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="72" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="2"/>
@@ -7332,9 +7337,9 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4">
         <v>25</v>
       </c>
@@ -7407,9 +7412,9 @@
       <c r="AA3" s="11">
         <v>30</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -7419,59 +7424,59 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="15" t="str">
         <f t="shared" ref="AB4:AB8" si="0">IF(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")))</f>
         <v/>
@@ -7485,59 +7490,59 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="80"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7551,59 +7556,59 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="55"/>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7617,59 +7622,59 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="80"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="80"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7683,59 +7688,59 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="80"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="52"/>
       <c r="X8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="80"/>
+      <c r="AA8" s="55"/>
       <c r="AB8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7749,57 +7754,57 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="80"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="52"/>
       <c r="X9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="55"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16" t="str">
         <f t="shared" si="1"/>
@@ -7810,57 +7815,57 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y10" s="44"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="80"/>
+      <c r="AA10" s="55"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16" t="str">
         <f t="shared" si="1"/>
@@ -7871,57 +7876,57 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" s="44"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="55"/>
       <c r="AB11" s="15" t="str">
         <f t="shared" ref="AB11:AB12" si="2">IF(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")))</f>
         <v/>
@@ -7935,57 +7940,57 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W12" s="45"/>
+      <c r="W12" s="53"/>
       <c r="X12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="45"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="81"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8006,39 +8011,39 @@
       <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="77"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="22" t="str">
         <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")))</f>
         <v/>
@@ -8085,119 +8090,119 @@
       <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="60" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="66"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="62"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11201,20 +11206,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AA15:AC17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:Q17"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="M4:M12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L13:S13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:E17"/>
@@ -11231,19 +11235,20 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:Q17"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11258,7 +11263,9 @@
   </sheetPr>
   <dimension ref="A1:AK1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11294,7 +11301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="34"/>
@@ -11335,12 +11342,12 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34"/>
@@ -11349,8 +11356,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="34"/>
@@ -11359,8 +11366,8 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="34"/>
@@ -11369,14 +11376,14 @@
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="72" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="2"/>
@@ -11388,9 +11395,9 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4">
         <v>25</v>
       </c>
@@ -11463,9 +11470,9 @@
       <c r="AA3" s="11">
         <v>30</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -11475,59 +11482,59 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="15" t="str">
         <f t="shared" ref="AB4:AB8" si="0">IF(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")))</f>
         <v/>
@@ -11541,59 +11548,59 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="80"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11607,59 +11614,59 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="55"/>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11673,59 +11680,59 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="80"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="80"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11739,59 +11746,59 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="80"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="52"/>
       <c r="X8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="80"/>
+      <c r="AA8" s="55"/>
       <c r="AB8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11805,57 +11812,57 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="80"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="52"/>
       <c r="X9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="55"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16" t="str">
         <f t="shared" si="1"/>
@@ -11866,57 +11873,57 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y10" s="44"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="80"/>
+      <c r="AA10" s="55"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16" t="str">
         <f t="shared" si="1"/>
@@ -11927,57 +11934,57 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" s="44"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="55"/>
       <c r="AB11" s="15" t="str">
         <f t="shared" ref="AB11:AB12" si="2">IF(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")))</f>
         <v/>
@@ -11991,57 +11998,57 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W12" s="45"/>
+      <c r="W12" s="53"/>
       <c r="X12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="45"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="81"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12062,39 +12069,39 @@
       <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="77"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="22" t="str">
         <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")))</f>
         <v/>
@@ -12141,119 +12148,119 @@
       <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="60" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="66"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="62"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15257,20 +15264,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AA15:AC17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:Q17"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="M4:M12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L13:S13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:E17"/>
@@ -15287,19 +15293,20 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:Q17"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15314,7 +15321,9 @@
   </sheetPr>
   <dimension ref="A1:AK1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15350,7 +15359,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="34"/>
@@ -15391,12 +15400,12 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34"/>
@@ -15405,8 +15414,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="34"/>
@@ -15415,8 +15424,8 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="34"/>
@@ -15425,14 +15434,14 @@
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="72" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="2"/>
@@ -15444,9 +15453,9 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4">
         <v>25</v>
       </c>
@@ -15519,9 +15528,9 @@
       <c r="AA3" s="11">
         <v>30</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -15531,59 +15540,59 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="15" t="str">
         <f t="shared" ref="AB4:AB8" si="0">IF(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")))</f>
         <v/>
@@ -15597,59 +15606,59 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="80"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15663,59 +15672,59 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="55"/>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15729,59 +15738,59 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="80"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="80"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15795,59 +15804,59 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="80"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="52"/>
       <c r="X8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="80"/>
+      <c r="AA8" s="55"/>
       <c r="AB8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -15861,57 +15870,57 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="80"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="52"/>
       <c r="X9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="55"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16" t="str">
         <f t="shared" si="1"/>
@@ -15922,57 +15931,57 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y10" s="44"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="80"/>
+      <c r="AA10" s="55"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16" t="str">
         <f t="shared" si="1"/>
@@ -15983,57 +15992,57 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" s="44"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="55"/>
       <c r="AB11" s="15" t="str">
         <f t="shared" ref="AB11:AB12" si="2">IF(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")))</f>
         <v/>
@@ -16047,57 +16056,57 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W12" s="45"/>
+      <c r="W12" s="53"/>
       <c r="X12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="45"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="81"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16118,39 +16127,39 @@
       <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="77"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="22" t="str">
         <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")))</f>
         <v/>
@@ -16197,119 +16206,119 @@
       <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="60" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="66"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="62"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19313,20 +19322,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AA15:AC17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:Q17"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="M4:M12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L13:S13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:E17"/>
@@ -19343,19 +19351,20 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:Q17"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19370,7 +19379,9 @@
   </sheetPr>
   <dimension ref="A1:AK1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19406,7 +19417,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="34"/>
@@ -19447,12 +19458,12 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34"/>
@@ -19461,8 +19472,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="34"/>
@@ -19471,8 +19482,8 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="34"/>
@@ -19481,14 +19492,14 @@
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="72" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="71" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="2"/>
@@ -19500,9 +19511,9 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="4">
         <v>25</v>
       </c>
@@ -19575,9 +19586,9 @@
       <c r="AA3" s="11">
         <v>30</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -19587,59 +19598,59 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="51"/>
       <c r="R4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="51"/>
       <c r="V4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="15" t="str">
         <f t="shared" ref="AB4:AB8" si="0">IF(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z4,"=true")*25," [min]")))</f>
         <v/>
@@ -19653,59 +19664,59 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="W5" s="52"/>
       <c r="X5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" s="80"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -19719,59 +19730,59 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="44"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S6" s="80"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="52"/>
       <c r="V6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA6" s="80"/>
+      <c r="AA6" s="55"/>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -19785,59 +19796,59 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="44"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" s="44"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="80"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="52"/>
       <c r="X7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="52"/>
       <c r="Z7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" s="80"/>
+      <c r="AA7" s="55"/>
       <c r="AB7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -19851,59 +19862,59 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="80"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="52"/>
       <c r="X8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="44"/>
+      <c r="Y8" s="52"/>
       <c r="Z8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" s="80"/>
+      <c r="AA8" s="55"/>
       <c r="AB8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -19917,57 +19928,57 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="80"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="44"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="52"/>
       <c r="X9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="52"/>
       <c r="Z9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA9" s="80"/>
+      <c r="AA9" s="55"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16" t="str">
         <f t="shared" si="1"/>
@@ -19978,57 +19989,57 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="55"/>
       <c r="T10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="44"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="52"/>
       <c r="X10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y10" s="44"/>
+      <c r="Y10" s="52"/>
       <c r="Z10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA10" s="80"/>
+      <c r="AA10" s="55"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16" t="str">
         <f t="shared" si="1"/>
@@ -20039,57 +20050,57 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="47"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="44"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="55"/>
       <c r="T11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="44"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="52"/>
       <c r="X11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Y11" s="44"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AA11" s="80"/>
+      <c r="AA11" s="55"/>
       <c r="AB11" s="15" t="str">
         <f t="shared" ref="AB11:AB12" si="2">IF(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D11:Z11,"=true")*25," [min]")))</f>
         <v/>
@@ -20103,57 +20114,57 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="48"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="53"/>
       <c r="V12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W12" s="45"/>
+      <c r="W12" s="53"/>
       <c r="X12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="45"/>
+      <c r="Y12" s="53"/>
       <c r="Z12" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" s="81"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -20174,39 +20185,39 @@
       <c r="AK12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78" t="s">
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="77"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="22" t="str">
         <f>IF(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")="0 [min]","",(CONCATENATE(COUNTIF(D4:Z12,"=true")*25," [min]")))</f>
         <v/>
@@ -20253,119 +20264,119 @@
       <c r="AD14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="60" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="60" t="s">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="66"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
       <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="62"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="62"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="62"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23369,20 +23380,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AA15:AC17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="M15:Q17"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="K4:K12"/>
+    <mergeCell ref="M4:M12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L13:S13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:E17"/>
@@ -23399,19 +23409,20 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="K4:K12"/>
-    <mergeCell ref="M4:M12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="M15:Q17"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
